--- a/src/main/resources/templates/provision_of_service_act.xlsx
+++ b/src/main/resources/templates/provision_of_service_act.xlsx
@@ -173,9 +173,6 @@
     <t>${fromTime}</t>
   </si>
   <si>
-    <t>${partyRepresentation.merchantContractCreatedAt}</t>
-  </si>
-  <si>
     <t>${partyRepresentation.merchantName}</t>
   </si>
   <si>
@@ -195,15 +192,17 @@
   </si>
   <si>
     <t>${shopAccounting.fundsRefunded}</t>
+  </si>
+  <si>
+    <t>${partyRepresentation.merchantContractSignedAt}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.00&quot; &quot;;&quot;-&quot;#,##0.00&quot; &quot;"/>
-    <numFmt numFmtId="165" formatCode="[$-FC19]dd\ mmmm\ yyyy\ \г\.;@"/>
     <numFmt numFmtId="166" formatCode="dd\.mm\.yyyy"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
@@ -340,12 +339,6 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="4" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -358,6 +351,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -372,8 +368,11 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1565,7 +1564,7 @@
   <dimension ref="A1:DZ234"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1575,24 +1574,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:130" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
     </row>
     <row r="2" spans="1:130" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="23"/>
+      <c r="A2" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="21"/>
     </row>
     <row r="3" spans="1:130" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
@@ -1602,13 +1601,13 @@
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:130" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
     </row>
     <row r="5" spans="1:130" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
@@ -1626,8 +1625,8 @@
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="10"/>
-      <c r="E6" s="22" t="s">
-        <v>41</v>
+      <c r="E6" s="20" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:130" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1769,7 +1768,7 @@
       <c r="C8" s="2"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:130" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1783,7 +1782,7 @@
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="13"/>
-      <c r="D10" s="21"/>
+      <c r="D10" s="19"/>
       <c r="E10" s="13"/>
     </row>
     <row r="11" spans="1:130" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1822,13 +1821,13 @@
       <c r="A15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="28" t="s">
         <v>39</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="29" t="s">
         <v>38</v>
       </c>
       <c r="E15" s="3" t="s">
@@ -1857,7 +1856,7 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="18" t="s">
         <v>36</v>
       </c>
       <c r="E18" s="5" t="s">
@@ -1868,7 +1867,7 @@
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="19"/>
+      <c r="D19" s="17"/>
       <c r="E19" s="6"/>
     </row>
     <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1877,7 +1876,7 @@
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="18" t="s">
         <v>37</v>
       </c>
       <c r="E20" s="5" t="s">
@@ -1908,12 +1907,12 @@
       <c r="E23"/>
     </row>
     <row r="24" spans="1:5" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="20" t="s">
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="18" t="s">
         <v>34</v>
       </c>
       <c r="E24" s="5" t="s">
@@ -1921,12 +1920,12 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="20" t="s">
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="18" t="s">
         <v>36</v>
       </c>
       <c r="E25" s="5" t="s">
@@ -1934,12 +1933,12 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="20" t="s">
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="18" t="s">
         <v>37</v>
       </c>
       <c r="E26" s="5" t="s">
@@ -1947,25 +1946,25 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="26" t="s">
+      <c r="A27" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="20" t="s">
-        <v>46</v>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="18" t="s">
+        <v>45</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="26" t="s">
+      <c r="A28" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="20">
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="18">
         <v>0</v>
       </c>
       <c r="E28" s="5" t="s">
@@ -1973,25 +1972,25 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="26" t="s">
+      <c r="A29" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="20" t="s">
-        <v>47</v>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="18" t="s">
+        <v>46</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="24" t="s">
+      <c r="A30" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="20" t="s">
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="18" t="s">
         <v>35</v>
       </c>
       <c r="E30" s="5" t="s">
@@ -2090,7 +2089,7 @@
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2119,7 +2118,7 @@
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
